--- a/ЛР №1/lab_1/Orlov/keyboard_2/data_exp_1/13_keys/13_keys.xlsx
+++ b/ЛР №1/lab_1/Orlov/keyboard_2/data_exp_1/13_keys/13_keys.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Учёба\МАИ\4 курс\Базы и банки данных\ЛР №1\lab_1\Orlov\keyboard_2\data_exp_1\13_keys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Учёба\МАИ\4 курс\Базы и банки данных\данные\Петя\клавиатура 2\эксперимент 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{538C488E-B980-496C-9BCA-BACB48A06A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{267FDB2F-83D6-4F92-A4AC-634486D713C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5400" yWindow="0" windowWidth="16200" windowHeight="9970"/>
   </bookViews>
